--- a/biology/Botanique/Bouche_de_Bétizac/Bouche_de_Bétizac.xlsx
+++ b/biology/Botanique/Bouche_de_Bétizac/Bouche_de_Bétizac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bouche_de_B%C3%A9tizac</t>
+          <t>Bouche_de_Bétizac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Bouche de Bétizac » est une variété de châtaignier développée par l'INRA en 1962 à la station de Malemort-sur-Corrèze près de Brive.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bouche_de_B%C3%A9tizac</t>
+          <t>Bouche_de_Bétizac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,13 +527,15 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre moyennement vigoureux au port érigé peut être planté serré dans les châtaigneraies (7 × 7 m), ce qui améliore sa productivité avec 200 arbres à l'hectare. De plus, il met à fruit rapidement avec une productivité de chaque arbre bonne et régulière. En culture irriguée (goutte-à-goutte), à Bordeaux, la production cumulée à l'âge de 5 à 7 ans oscille de 21 à 40 kg par arbre.
 Bouche de Bétizac garde ses feuilles longtemps au début de l'automne. Les fruits restent aussi longtemps accrochés à l'arbre et on utilise parfois des vibreurs pour les faire chuter.
 « Bouche de Bétizac » n'a pas de pollen et est pollinisé par de nombreuses variétés telles que Belle épine, Marron de Goujounac, Marron de Chevanceaux (C sativa à fleurs mâles longistaminées) et à un degré moindre Bournette, Précoce Migoule, Maraval et Marsol, (hybrides interspécifiques à fleurs mâles longistaminées).
 La multiplication végétative par marcottage est possible.
-Ce cultivar est peu sensible au chancre de l'écorce et au cynips du châtaignier[1]. Il a toutefois l'inconvénient d'être sensible aux gelées printanières, mais se trouve souvent jusqu'à l'altitude de 400 m, fréquent dans le sud-ouest.
+Ce cultivar est peu sensible au chancre de l'écorce et au cynips du châtaignier. Il a toutefois l'inconvénient d'être sensible aux gelées printanières, mais se trouve souvent jusqu'à l'altitude de 400 m, fréquent dans le sud-ouest.
 </t>
         </is>
       </c>
